--- a/Code/Results/Cases/Case_1_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00950449650231</v>
+        <v>1.03777678762336</v>
       </c>
       <c r="D2">
-        <v>1.035535389526438</v>
+        <v>1.037736977939337</v>
       </c>
       <c r="E2">
-        <v>1.023112828597478</v>
+        <v>1.045974249498022</v>
       </c>
       <c r="F2">
-        <v>1.030486938549237</v>
+        <v>1.055556195354918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05302193121166</v>
+        <v>1.040861074483044</v>
       </c>
       <c r="J2">
-        <v>1.031404598974278</v>
+        <v>1.042877817621427</v>
       </c>
       <c r="K2">
-        <v>1.046520900845489</v>
+        <v>1.040527009585522</v>
       </c>
       <c r="L2">
-        <v>1.034259288723148</v>
+        <v>1.048740985483936</v>
       </c>
       <c r="M2">
-        <v>1.041537272839851</v>
+        <v>1.058296328623705</v>
       </c>
       <c r="N2">
-        <v>1.032869311808582</v>
+        <v>1.044358823742207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013902402248421</v>
+        <v>1.038707320684673</v>
       </c>
       <c r="D3">
-        <v>1.037992118461978</v>
+        <v>1.038246809317317</v>
       </c>
       <c r="E3">
-        <v>1.026821099761719</v>
+        <v>1.046810860112523</v>
       </c>
       <c r="F3">
-        <v>1.034638725746427</v>
+        <v>1.056498375303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054321083982129</v>
+        <v>1.041068686417052</v>
       </c>
       <c r="J3">
-        <v>1.034021117313967</v>
+        <v>1.043452965225869</v>
       </c>
       <c r="K3">
-        <v>1.048160908498684</v>
+        <v>1.040847504310623</v>
       </c>
       <c r="L3">
-        <v>1.037121926474344</v>
+        <v>1.049389079766284</v>
       </c>
       <c r="M3">
-        <v>1.044846780725381</v>
+        <v>1.059051644977546</v>
       </c>
       <c r="N3">
-        <v>1.035489545904433</v>
+        <v>1.044934788122218</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016691417233281</v>
+        <v>1.039309866341272</v>
       </c>
       <c r="D4">
-        <v>1.039552389411328</v>
+        <v>1.03857678014702</v>
       </c>
       <c r="E4">
-        <v>1.029178548641097</v>
+        <v>1.047352969096884</v>
       </c>
       <c r="F4">
-        <v>1.037277848937607</v>
+        <v>1.057108909785256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055134485647508</v>
+        <v>1.041201785213006</v>
       </c>
       <c r="J4">
-        <v>1.035677581901797</v>
+        <v>1.043824925299288</v>
       </c>
       <c r="K4">
-        <v>1.049195784107901</v>
+        <v>1.041054245850161</v>
       </c>
       <c r="L4">
-        <v>1.038937120763748</v>
+        <v>1.04980855831473</v>
       </c>
       <c r="M4">
-        <v>1.04694625477693</v>
+        <v>1.059540638712862</v>
       </c>
       <c r="N4">
-        <v>1.037148362861977</v>
+        <v>1.045307276421606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017850804481323</v>
+        <v>1.039563278063453</v>
       </c>
       <c r="D5">
-        <v>1.040201459379801</v>
+        <v>1.038715516338208</v>
       </c>
       <c r="E5">
-        <v>1.030159882773407</v>
+        <v>1.047581053681491</v>
       </c>
       <c r="F5">
-        <v>1.038376375999598</v>
+        <v>1.057365787955308</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055470051679927</v>
+        <v>1.041257442350817</v>
       </c>
       <c r="J5">
-        <v>1.036365454364764</v>
+        <v>1.043981248695186</v>
       </c>
       <c r="K5">
-        <v>1.049624681443505</v>
+        <v>1.041141005662485</v>
       </c>
       <c r="L5">
-        <v>1.039691609941651</v>
+        <v>1.049984934274584</v>
       </c>
       <c r="M5">
-        <v>1.0478191279536</v>
+        <v>1.059746271113388</v>
       </c>
       <c r="N5">
-        <v>1.037837212182741</v>
+        <v>1.045463821814656</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018044714761857</v>
+        <v>1.039605832929426</v>
       </c>
       <c r="D6">
-        <v>1.040310043139434</v>
+        <v>1.038738811670487</v>
       </c>
       <c r="E6">
-        <v>1.030324091389819</v>
+        <v>1.047619360716596</v>
       </c>
       <c r="F6">
-        <v>1.03856019147351</v>
+        <v>1.057408931171817</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055526023830275</v>
+        <v>1.0412667699566</v>
       </c>
       <c r="J6">
-        <v>1.036480459651697</v>
+        <v>1.04400749320096</v>
       </c>
       <c r="K6">
-        <v>1.049696337559635</v>
+        <v>1.041155563934111</v>
       </c>
       <c r="L6">
-        <v>1.039817794188007</v>
+        <v>1.050014550135466</v>
       </c>
       <c r="M6">
-        <v>1.047965124420893</v>
+        <v>1.059780801146735</v>
       </c>
       <c r="N6">
-        <v>1.037952380790373</v>
+        <v>1.045490103590638</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016706959953903</v>
+        <v>1.039313252043499</v>
       </c>
       <c r="D7">
-        <v>1.039561089082121</v>
+        <v>1.038578633884293</v>
       </c>
       <c r="E7">
-        <v>1.029191699110968</v>
+        <v>1.047356016061027</v>
       </c>
       <c r="F7">
-        <v>1.037292570088132</v>
+        <v>1.057112341382671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055138994426337</v>
+        <v>1.041202530076676</v>
       </c>
       <c r="J7">
-        <v>1.035686806376033</v>
+        <v>1.043827014292456</v>
       </c>
       <c r="K7">
-        <v>1.049201539100112</v>
+        <v>1.041055405746845</v>
       </c>
       <c r="L7">
-        <v>1.03894723580229</v>
+        <v>1.049810914953555</v>
       </c>
       <c r="M7">
-        <v>1.046957956045835</v>
+        <v>1.059543386151116</v>
       </c>
       <c r="N7">
-        <v>1.037157600436024</v>
+        <v>1.045309368381383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01100282181519</v>
+        <v>1.038091176253729</v>
       </c>
       <c r="D8">
-        <v>1.036371844062904</v>
+        <v>1.037909261117153</v>
       </c>
       <c r="E8">
-        <v>1.024374966403976</v>
+        <v>1.046256826525584</v>
       </c>
       <c r="F8">
-        <v>1.031900094016238</v>
+        <v>1.055874426178102</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053466707511383</v>
+        <v>1.04093149421785</v>
       </c>
       <c r="J8">
-        <v>1.032296599692575</v>
+        <v>1.04307223202327</v>
       </c>
       <c r="K8">
-        <v>1.047080682875968</v>
+        <v>1.040635454118475</v>
       </c>
       <c r="L8">
-        <v>1.035234583330956</v>
+        <v>1.048959986830144</v>
       </c>
       <c r="M8">
-        <v>1.042664623318968</v>
+        <v>1.058551538062029</v>
       </c>
       <c r="N8">
-        <v>1.033762579270213</v>
+        <v>1.044553514234801</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000494868058861</v>
+        <v>1.035941051751986</v>
       </c>
       <c r="D9">
-        <v>1.030518818901866</v>
+        <v>1.03673039656713</v>
       </c>
       <c r="E9">
-        <v>1.015549602950365</v>
+        <v>1.044325842725719</v>
       </c>
       <c r="F9">
-        <v>1.022017237209779</v>
+        <v>1.053699873370194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050305020310466</v>
+        <v>1.040444429879395</v>
       </c>
       <c r="J9">
-        <v>1.026030163353692</v>
+        <v>1.041740730350977</v>
       </c>
       <c r="K9">
-        <v>1.043135421336497</v>
+        <v>1.039890593536804</v>
       </c>
       <c r="L9">
-        <v>1.028395337550031</v>
+        <v>1.047461497614457</v>
       </c>
       <c r="M9">
-        <v>1.034762921630637</v>
+        <v>1.056805772739615</v>
       </c>
       <c r="N9">
-        <v>1.027487243872959</v>
+        <v>1.043220121677407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9931497857972703</v>
+        <v>1.034509935987934</v>
       </c>
       <c r="D10">
-        <v>1.026448183399539</v>
+        <v>1.035945028808505</v>
       </c>
       <c r="E10">
-        <v>1.00941588525604</v>
+        <v>1.043042589384148</v>
       </c>
       <c r="F10">
-        <v>1.015146245520713</v>
+        <v>1.05225483711058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048043376398941</v>
+        <v>1.040113400357296</v>
       </c>
       <c r="J10">
-        <v>1.021637850602937</v>
+        <v>1.040852127377096</v>
       </c>
       <c r="K10">
-        <v>1.040355781577238</v>
+        <v>1.039390823799981</v>
       </c>
       <c r="L10">
-        <v>1.023617188939966</v>
+        <v>1.046463212894964</v>
       </c>
       <c r="M10">
-        <v>1.029247310827302</v>
+        <v>1.055643346943075</v>
       </c>
       <c r="N10">
-        <v>1.023088693534293</v>
+        <v>1.042330256785379</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9898807576543092</v>
+        <v>1.033890805447029</v>
       </c>
       <c r="D11">
-        <v>1.02464272047863</v>
+        <v>1.035605105743912</v>
       </c>
       <c r="E11">
-        <v>1.006695026697795</v>
+        <v>1.042487909003223</v>
       </c>
       <c r="F11">
-        <v>1.012097665372467</v>
+        <v>1.051630244882418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047025307359981</v>
+        <v>1.039968570958407</v>
       </c>
       <c r="J11">
-        <v>1.019680653526771</v>
+        <v>1.040467142910711</v>
       </c>
       <c r="K11">
-        <v>1.039114408090756</v>
+        <v>1.039173673855599</v>
       </c>
       <c r="L11">
-        <v>1.021491779513731</v>
+        <v>1.046031126270599</v>
       </c>
       <c r="M11">
-        <v>1.026794987585192</v>
+        <v>1.055140355505609</v>
       </c>
       <c r="N11">
-        <v>1.021128717013785</v>
+        <v>1.041944725596893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9886524607639584</v>
+        <v>1.033660916708025</v>
       </c>
       <c r="D12">
-        <v>1.023965394295376</v>
+        <v>1.035478866891984</v>
       </c>
       <c r="E12">
-        <v>1.005674116320027</v>
+        <v>1.042282024139466</v>
       </c>
       <c r="F12">
-        <v>1.01095367605863</v>
+        <v>1.051398412895544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046641120048821</v>
+        <v>1.03991455150139</v>
       </c>
       <c r="J12">
-        <v>1.018944955974322</v>
+        <v>1.040324111415499</v>
       </c>
       <c r="K12">
-        <v>1.038647420718799</v>
+        <v>1.039092903675648</v>
       </c>
       <c r="L12">
-        <v>1.020693410651759</v>
+        <v>1.04587065776856</v>
       </c>
       <c r="M12">
-        <v>1.025873987315276</v>
+        <v>1.054953575382379</v>
       </c>
       <c r="N12">
-        <v>1.020391974686425</v>
+        <v>1.041801490980552</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9889165819626514</v>
+        <v>1.033710224810093</v>
       </c>
       <c r="D13">
-        <v>1.024110990443704</v>
+        <v>1.035505944453796</v>
       </c>
       <c r="E13">
-        <v>1.005893577999174</v>
+        <v>1.04232618041649</v>
       </c>
       <c r="F13">
-        <v>1.011199600870993</v>
+        <v>1.051448133956425</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046723805937737</v>
+        <v>1.039926148954989</v>
       </c>
       <c r="J13">
-        <v>1.019103166340379</v>
+        <v>1.04035479354979</v>
       </c>
       <c r="K13">
-        <v>1.038747860991708</v>
+        <v>1.03911023415964</v>
       </c>
       <c r="L13">
-        <v>1.020865073113047</v>
+        <v>1.045905077535746</v>
       </c>
       <c r="M13">
-        <v>1.02607201000423</v>
+        <v>1.054993637921679</v>
       </c>
       <c r="N13">
-        <v>1.02055040972935</v>
+        <v>1.041832216686993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9897795169403489</v>
+        <v>1.033871801054743</v>
       </c>
       <c r="D14">
-        <v>1.024586870653049</v>
+        <v>1.035594670307442</v>
       </c>
       <c r="E14">
-        <v>1.006610850338618</v>
+        <v>1.042470887466457</v>
       </c>
       <c r="F14">
-        <v>1.012003343231183</v>
+        <v>1.05161107811468</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046993674599198</v>
+        <v>1.039964110245858</v>
       </c>
       <c r="J14">
-        <v>1.019620020572492</v>
+        <v>1.040455320512068</v>
       </c>
       <c r="K14">
-        <v>1.039075928111068</v>
+        <v>1.039166999625743</v>
       </c>
       <c r="L14">
-        <v>1.021425970107909</v>
+        <v>1.046017861322663</v>
       </c>
       <c r="M14">
-        <v>1.026719066297173</v>
+        <v>1.055124915108155</v>
       </c>
       <c r="N14">
-        <v>1.021067997953756</v>
+        <v>1.041932886409089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9903093173179567</v>
+        <v>1.033971364659968</v>
       </c>
       <c r="D15">
-        <v>1.024879180739933</v>
+        <v>1.035649340427263</v>
       </c>
       <c r="E15">
-        <v>1.00705140984473</v>
+        <v>1.042560065925285</v>
       </c>
       <c r="F15">
-        <v>1.012496998748555</v>
+        <v>1.051711495874618</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047159143963235</v>
+        <v>1.039987469872356</v>
       </c>
       <c r="J15">
-        <v>1.019937305296721</v>
+        <v>1.040517254395831</v>
       </c>
       <c r="K15">
-        <v>1.039277274590909</v>
+        <v>1.039201960024521</v>
       </c>
       <c r="L15">
-        <v>1.021770365332651</v>
+        <v>1.046087354840119</v>
       </c>
       <c r="M15">
-        <v>1.027116386064096</v>
+        <v>1.055205806413672</v>
       </c>
       <c r="N15">
-        <v>1.021385733258686</v>
+        <v>1.04199490824607</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9933648134745394</v>
+        <v>1.034551037356582</v>
       </c>
       <c r="D16">
-        <v>1.026567081460783</v>
+        <v>1.035967591613419</v>
       </c>
       <c r="E16">
-        <v>1.009595049219344</v>
+        <v>1.043079422391416</v>
       </c>
       <c r="F16">
-        <v>1.015346974399068</v>
+        <v>1.052296312915069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04811010820645</v>
+        <v>1.040122980844601</v>
       </c>
       <c r="J16">
-        <v>1.021766544776723</v>
+        <v>1.04087767311122</v>
       </c>
       <c r="K16">
-        <v>1.040437353923338</v>
+        <v>1.039405219696589</v>
       </c>
       <c r="L16">
-        <v>1.023757021214176</v>
+        <v>1.046491892887705</v>
       </c>
       <c r="M16">
-        <v>1.029408674302822</v>
+        <v>1.055676736234791</v>
       </c>
       <c r="N16">
-        <v>1.023217570468566</v>
+        <v>1.042355838797376</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9952572363576889</v>
+        <v>1.034914799204998</v>
       </c>
       <c r="D17">
-        <v>1.027614206671806</v>
+        <v>1.036167262575405</v>
       </c>
       <c r="E17">
-        <v>1.011172877400295</v>
+        <v>1.043405463465765</v>
       </c>
       <c r="F17">
-        <v>1.017114638305878</v>
+        <v>1.052663453510451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048696102917665</v>
+        <v>1.040207584493621</v>
       </c>
       <c r="J17">
-        <v>1.02289889998363</v>
+        <v>1.041103697759415</v>
       </c>
       <c r="K17">
-        <v>1.041154783659981</v>
+        <v>1.039532520083319</v>
       </c>
       <c r="L17">
-        <v>1.024987801128321</v>
+        <v>1.046745697133221</v>
       </c>
       <c r="M17">
-        <v>1.030829095930932</v>
+        <v>1.055972231725715</v>
       </c>
       <c r="N17">
-        <v>1.02435153374975</v>
+        <v>1.042582184426496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9963525617756448</v>
+        <v>1.035127028534027</v>
       </c>
       <c r="D18">
-        <v>1.02822086091595</v>
+        <v>1.036283741275722</v>
       </c>
       <c r="E18">
-        <v>1.012086970303947</v>
+        <v>1.043595731861491</v>
       </c>
       <c r="F18">
-        <v>1.018138646580651</v>
+        <v>1.05287770818526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049034178446293</v>
+        <v>1.040256788422202</v>
       </c>
       <c r="J18">
-        <v>1.02355407666592</v>
+        <v>1.041235513447493</v>
       </c>
       <c r="K18">
-        <v>1.041569618892525</v>
+        <v>1.039606700158981</v>
       </c>
       <c r="L18">
-        <v>1.025700278270738</v>
+        <v>1.046893753884932</v>
       </c>
       <c r="M18">
-        <v>1.03165146008686</v>
+        <v>1.056144622606574</v>
       </c>
       <c r="N18">
-        <v>1.025007640858079</v>
+        <v>1.042714187307971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9967246202400893</v>
+        <v>1.035199402244307</v>
       </c>
       <c r="D19">
-        <v>1.028427023767021</v>
+        <v>1.03632345982572</v>
       </c>
       <c r="E19">
-        <v>1.012397610976398</v>
+        <v>1.043660624395612</v>
       </c>
       <c r="F19">
-        <v>1.018486629918982</v>
+        <v>1.052950781730551</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049148827673241</v>
+        <v>1.040273541252815</v>
       </c>
       <c r="J19">
-        <v>1.023776586535961</v>
+        <v>1.041280455656482</v>
       </c>
       <c r="K19">
-        <v>1.041710457574303</v>
+        <v>1.039631981386956</v>
       </c>
       <c r="L19">
-        <v>1.025942308160899</v>
+        <v>1.046944240266769</v>
       </c>
       <c r="M19">
-        <v>1.031930836954697</v>
+        <v>1.056203409063391</v>
       </c>
       <c r="N19">
-        <v>1.025230466717658</v>
+        <v>1.042759193340052</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9950550808570305</v>
+        <v>1.034875765491758</v>
       </c>
       <c r="D20">
-        <v>1.027502287623603</v>
+        <v>1.036145838309676</v>
       </c>
       <c r="E20">
-        <v>1.011004239090554</v>
+        <v>1.043370472595441</v>
       </c>
       <c r="F20">
-        <v>1.016925716995778</v>
+        <v>1.052624051641068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0486336180099</v>
+        <v>1.040198522206962</v>
       </c>
       <c r="J20">
-        <v>1.022777960713284</v>
+        <v>1.041079449584315</v>
       </c>
       <c r="K20">
-        <v>1.041078187128638</v>
+        <v>1.039518869404779</v>
       </c>
       <c r="L20">
-        <v>1.024856313220994</v>
+        <v>1.046718464570416</v>
       </c>
       <c r="M20">
-        <v>1.030677336970226</v>
+        <v>1.055940524396632</v>
       </c>
       <c r="N20">
-        <v>1.024230422731768</v>
+        <v>1.042557901816207</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9895257976229362</v>
+        <v>1.033824218553684</v>
       </c>
       <c r="D21">
-        <v>1.024446922819311</v>
+        <v>1.035568542086698</v>
       </c>
       <c r="E21">
-        <v>1.006399919060887</v>
+        <v>1.042428270746894</v>
       </c>
       <c r="F21">
-        <v>1.011766986541349</v>
+        <v>1.051563090434409</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046914373229954</v>
+        <v>1.039952937752326</v>
       </c>
       <c r="J21">
-        <v>1.019468063596208</v>
+        <v>1.040425718678718</v>
       </c>
       <c r="K21">
-        <v>1.038979484768837</v>
+        <v>1.03915028666668</v>
       </c>
       <c r="L21">
-        <v>1.021261049023372</v>
+        <v>1.045984648534905</v>
       </c>
       <c r="M21">
-        <v>1.02652880711217</v>
+        <v>1.055086255767812</v>
       </c>
       <c r="N21">
-        <v>1.020915825181136</v>
+        <v>1.04190324253774</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859677210621405</v>
+        <v>1.033163555224761</v>
       </c>
       <c r="D22">
-        <v>1.02248700757338</v>
+        <v>1.035205711060178</v>
       </c>
       <c r="E22">
-        <v>1.003445348424646</v>
+        <v>1.041836728746337</v>
       </c>
       <c r="F22">
-        <v>1.008455992928385</v>
+        <v>1.050897002673444</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045798408452692</v>
+        <v>1.039797237057166</v>
       </c>
       <c r="J22">
-        <v>1.017336403528057</v>
+        <v>1.040014512517445</v>
       </c>
       <c r="K22">
-        <v>1.037625778049565</v>
+        <v>1.038917902277681</v>
       </c>
       <c r="L22">
-        <v>1.018948859883731</v>
+        <v>1.045523430118303</v>
       </c>
       <c r="M22">
-        <v>1.023861775772132</v>
+        <v>1.054549452112247</v>
       </c>
       <c r="N22">
-        <v>1.018781137911183</v>
+        <v>1.041491452416552</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9878619161233088</v>
+        <v>1.033513738965031</v>
       </c>
       <c r="D23">
-        <v>1.023529772409504</v>
+        <v>1.035398040996693</v>
       </c>
       <c r="E23">
-        <v>1.005017455429274</v>
+        <v>1.042150234593892</v>
       </c>
       <c r="F23">
-        <v>1.010217816304405</v>
+        <v>1.051250014972547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046393393753215</v>
+        <v>1.03987989917432</v>
       </c>
       <c r="J23">
-        <v>1.018471373439483</v>
+        <v>1.040232517388131</v>
       </c>
       <c r="K23">
-        <v>1.038346716612922</v>
+        <v>1.039041154104286</v>
       </c>
       <c r="L23">
-        <v>1.020179642913032</v>
+        <v>1.04576791512015</v>
       </c>
       <c r="M23">
-        <v>1.025281350623177</v>
+        <v>1.054833992195738</v>
       </c>
       <c r="N23">
-        <v>1.019917719610066</v>
+        <v>1.041709766879159</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9951464524183692</v>
+        <v>1.034893402982276</v>
       </c>
       <c r="D24">
-        <v>1.02755287172583</v>
+        <v>1.0361555189701</v>
       </c>
       <c r="E24">
-        <v>1.011080458692118</v>
+        <v>1.043386283172799</v>
       </c>
       <c r="F24">
-        <v>1.01701110411783</v>
+        <v>1.052641855316932</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048661863747208</v>
+        <v>1.040202617509068</v>
       </c>
       <c r="J24">
-        <v>1.022832624334852</v>
+        <v>1.041090406354828</v>
       </c>
       <c r="K24">
-        <v>1.041112809004825</v>
+        <v>1.039525037781688</v>
       </c>
       <c r="L24">
-        <v>1.024915743653173</v>
+        <v>1.046730769740819</v>
       </c>
       <c r="M24">
-        <v>1.03074592926355</v>
+        <v>1.055954851470855</v>
       </c>
       <c r="N24">
-        <v>1.024285163981949</v>
+        <v>1.042568874146591</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00326877989704</v>
+        <v>1.036496509551003</v>
       </c>
       <c r="D25">
-        <v>1.032060775807179</v>
+        <v>1.037035073161799</v>
       </c>
       <c r="E25">
-        <v>1.017873479972558</v>
+        <v>1.04482433718635</v>
       </c>
       <c r="F25">
-        <v>1.024619929263021</v>
+        <v>1.054261231322308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051148787398154</v>
+        <v>1.040571464803526</v>
       </c>
       <c r="J25">
-        <v>1.027686635109638</v>
+        <v>1.042085124613451</v>
       </c>
       <c r="K25">
-        <v>1.044180971694638</v>
+        <v>1.040083726013622</v>
       </c>
       <c r="L25">
-        <v>1.030200527546364</v>
+        <v>1.047848773029724</v>
       </c>
       <c r="M25">
-        <v>1.036847706947355</v>
+        <v>1.057256850495874</v>
       </c>
       <c r="N25">
-        <v>1.029146068008798</v>
+        <v>1.043565005019237</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03777678762336</v>
+        <v>1.009504496502309</v>
       </c>
       <c r="D2">
-        <v>1.037736977939337</v>
+        <v>1.035535389526437</v>
       </c>
       <c r="E2">
-        <v>1.045974249498022</v>
+        <v>1.023112828597477</v>
       </c>
       <c r="F2">
-        <v>1.055556195354918</v>
+        <v>1.030486938549236</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040861074483044</v>
+        <v>1.05302193121166</v>
       </c>
       <c r="J2">
-        <v>1.042877817621427</v>
+        <v>1.031404598974277</v>
       </c>
       <c r="K2">
-        <v>1.040527009585522</v>
+        <v>1.046520900845488</v>
       </c>
       <c r="L2">
-        <v>1.048740985483936</v>
+        <v>1.034259288723147</v>
       </c>
       <c r="M2">
-        <v>1.058296328623705</v>
+        <v>1.04153727283985</v>
       </c>
       <c r="N2">
-        <v>1.044358823742207</v>
+        <v>1.032869311808581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038707320684673</v>
+        <v>1.01390240224842</v>
       </c>
       <c r="D3">
-        <v>1.038246809317317</v>
+        <v>1.037992118461978</v>
       </c>
       <c r="E3">
-        <v>1.046810860112523</v>
+        <v>1.026821099761718</v>
       </c>
       <c r="F3">
-        <v>1.056498375303</v>
+        <v>1.034638725746427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041068686417052</v>
+        <v>1.054321083982129</v>
       </c>
       <c r="J3">
-        <v>1.043452965225869</v>
+        <v>1.034021117313967</v>
       </c>
       <c r="K3">
-        <v>1.040847504310623</v>
+        <v>1.048160908498684</v>
       </c>
       <c r="L3">
-        <v>1.049389079766284</v>
+        <v>1.037121926474343</v>
       </c>
       <c r="M3">
-        <v>1.059051644977546</v>
+        <v>1.04484678072538</v>
       </c>
       <c r="N3">
-        <v>1.044934788122218</v>
+        <v>1.035489545904432</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039309866341272</v>
+        <v>1.016691417233281</v>
       </c>
       <c r="D4">
-        <v>1.03857678014702</v>
+        <v>1.039552389411328</v>
       </c>
       <c r="E4">
-        <v>1.047352969096884</v>
+        <v>1.029178548641097</v>
       </c>
       <c r="F4">
-        <v>1.057108909785256</v>
+        <v>1.037277848937607</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041201785213006</v>
+        <v>1.055134485647508</v>
       </c>
       <c r="J4">
-        <v>1.043824925299288</v>
+        <v>1.035677581901797</v>
       </c>
       <c r="K4">
-        <v>1.041054245850161</v>
+        <v>1.049195784107901</v>
       </c>
       <c r="L4">
-        <v>1.04980855831473</v>
+        <v>1.038937120763748</v>
       </c>
       <c r="M4">
-        <v>1.059540638712862</v>
+        <v>1.04694625477693</v>
       </c>
       <c r="N4">
-        <v>1.045307276421606</v>
+        <v>1.037148362861977</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039563278063453</v>
+        <v>1.017850804481322</v>
       </c>
       <c r="D5">
-        <v>1.038715516338208</v>
+        <v>1.040201459379801</v>
       </c>
       <c r="E5">
-        <v>1.047581053681491</v>
+        <v>1.030159882773406</v>
       </c>
       <c r="F5">
-        <v>1.057365787955308</v>
+        <v>1.038376375999598</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041257442350817</v>
+        <v>1.055470051679927</v>
       </c>
       <c r="J5">
-        <v>1.043981248695186</v>
+        <v>1.036365454364763</v>
       </c>
       <c r="K5">
-        <v>1.041141005662485</v>
+        <v>1.049624681443505</v>
       </c>
       <c r="L5">
-        <v>1.049984934274584</v>
+        <v>1.03969160994165</v>
       </c>
       <c r="M5">
-        <v>1.059746271113388</v>
+        <v>1.0478191279536</v>
       </c>
       <c r="N5">
-        <v>1.045463821814656</v>
+        <v>1.03783721218274</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039605832929426</v>
+        <v>1.018044714761855</v>
       </c>
       <c r="D6">
-        <v>1.038738811670487</v>
+        <v>1.040310043139434</v>
       </c>
       <c r="E6">
-        <v>1.047619360716596</v>
+        <v>1.030324091389818</v>
       </c>
       <c r="F6">
-        <v>1.057408931171817</v>
+        <v>1.038560191473508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0412667699566</v>
+        <v>1.055526023830275</v>
       </c>
       <c r="J6">
-        <v>1.04400749320096</v>
+        <v>1.036480459651696</v>
       </c>
       <c r="K6">
-        <v>1.041155563934111</v>
+        <v>1.049696337559635</v>
       </c>
       <c r="L6">
-        <v>1.050014550135466</v>
+        <v>1.039817794188006</v>
       </c>
       <c r="M6">
-        <v>1.059780801146735</v>
+        <v>1.047965124420891</v>
       </c>
       <c r="N6">
-        <v>1.045490103590638</v>
+        <v>1.037952380790372</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039313252043499</v>
+        <v>1.016706959953903</v>
       </c>
       <c r="D7">
-        <v>1.038578633884293</v>
+        <v>1.039561089082121</v>
       </c>
       <c r="E7">
-        <v>1.047356016061027</v>
+        <v>1.029191699110968</v>
       </c>
       <c r="F7">
-        <v>1.057112341382671</v>
+        <v>1.037292570088133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041202530076676</v>
+        <v>1.055138994426337</v>
       </c>
       <c r="J7">
-        <v>1.043827014292456</v>
+        <v>1.035686806376033</v>
       </c>
       <c r="K7">
-        <v>1.041055405746845</v>
+        <v>1.049201539100112</v>
       </c>
       <c r="L7">
-        <v>1.049810914953555</v>
+        <v>1.03894723580229</v>
       </c>
       <c r="M7">
-        <v>1.059543386151116</v>
+        <v>1.046957956045835</v>
       </c>
       <c r="N7">
-        <v>1.045309368381383</v>
+        <v>1.037157600436024</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038091176253729</v>
+        <v>1.011002821815189</v>
       </c>
       <c r="D8">
-        <v>1.037909261117153</v>
+        <v>1.036371844062904</v>
       </c>
       <c r="E8">
-        <v>1.046256826525584</v>
+        <v>1.024374966403975</v>
       </c>
       <c r="F8">
-        <v>1.055874426178102</v>
+        <v>1.031900094016236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04093149421785</v>
+        <v>1.053466707511382</v>
       </c>
       <c r="J8">
-        <v>1.04307223202327</v>
+        <v>1.032296599692574</v>
       </c>
       <c r="K8">
-        <v>1.040635454118475</v>
+        <v>1.047080682875967</v>
       </c>
       <c r="L8">
-        <v>1.048959986830144</v>
+        <v>1.035234583330955</v>
       </c>
       <c r="M8">
-        <v>1.058551538062029</v>
+        <v>1.042664623318966</v>
       </c>
       <c r="N8">
-        <v>1.044553514234801</v>
+        <v>1.033762579270212</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035941051751986</v>
+        <v>1.00049486805886</v>
       </c>
       <c r="D9">
-        <v>1.03673039656713</v>
+        <v>1.030518818901866</v>
       </c>
       <c r="E9">
-        <v>1.044325842725719</v>
+        <v>1.015549602950364</v>
       </c>
       <c r="F9">
-        <v>1.053699873370194</v>
+        <v>1.022017237209779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040444429879395</v>
+        <v>1.050305020310466</v>
       </c>
       <c r="J9">
-        <v>1.041740730350977</v>
+        <v>1.026030163353691</v>
       </c>
       <c r="K9">
-        <v>1.039890593536804</v>
+        <v>1.043135421336497</v>
       </c>
       <c r="L9">
-        <v>1.047461497614457</v>
+        <v>1.028395337550031</v>
       </c>
       <c r="M9">
-        <v>1.056805772739615</v>
+        <v>1.034762921630637</v>
       </c>
       <c r="N9">
-        <v>1.043220121677407</v>
+        <v>1.027487243872958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034509935987934</v>
+        <v>0.9931497857972699</v>
       </c>
       <c r="D10">
-        <v>1.035945028808505</v>
+        <v>1.026448183399539</v>
       </c>
       <c r="E10">
-        <v>1.043042589384148</v>
+        <v>1.00941588525604</v>
       </c>
       <c r="F10">
-        <v>1.05225483711058</v>
+        <v>1.015146245520714</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040113400357296</v>
+        <v>1.048043376398941</v>
       </c>
       <c r="J10">
-        <v>1.040852127377096</v>
+        <v>1.021637850602937</v>
       </c>
       <c r="K10">
-        <v>1.039390823799981</v>
+        <v>1.040355781577239</v>
       </c>
       <c r="L10">
-        <v>1.046463212894964</v>
+        <v>1.023617188939966</v>
       </c>
       <c r="M10">
-        <v>1.055643346943075</v>
+        <v>1.029247310827302</v>
       </c>
       <c r="N10">
-        <v>1.042330256785379</v>
+        <v>1.023088693534293</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033890805447029</v>
+        <v>0.9898807576543086</v>
       </c>
       <c r="D11">
-        <v>1.035605105743912</v>
+        <v>1.02464272047863</v>
       </c>
       <c r="E11">
-        <v>1.042487909003223</v>
+        <v>1.006695026697794</v>
       </c>
       <c r="F11">
-        <v>1.051630244882418</v>
+        <v>1.012097665372466</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039968570958407</v>
+        <v>1.047025307359982</v>
       </c>
       <c r="J11">
-        <v>1.040467142910711</v>
+        <v>1.01968065352677</v>
       </c>
       <c r="K11">
-        <v>1.039173673855599</v>
+        <v>1.039114408090756</v>
       </c>
       <c r="L11">
-        <v>1.046031126270599</v>
+        <v>1.021491779513731</v>
       </c>
       <c r="M11">
-        <v>1.055140355505609</v>
+        <v>1.026794987585192</v>
       </c>
       <c r="N11">
-        <v>1.041944725596893</v>
+        <v>1.021128717013784</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033660916708025</v>
+        <v>0.9886524607639577</v>
       </c>
       <c r="D12">
-        <v>1.035478866891984</v>
+        <v>1.023965394295375</v>
       </c>
       <c r="E12">
-        <v>1.042282024139466</v>
+        <v>1.005674116320026</v>
       </c>
       <c r="F12">
-        <v>1.051398412895544</v>
+        <v>1.010953676058629</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03991455150139</v>
+        <v>1.046641120048821</v>
       </c>
       <c r="J12">
-        <v>1.040324111415499</v>
+        <v>1.018944955974321</v>
       </c>
       <c r="K12">
-        <v>1.039092903675648</v>
+        <v>1.038647420718799</v>
       </c>
       <c r="L12">
-        <v>1.04587065776856</v>
+        <v>1.020693410651758</v>
       </c>
       <c r="M12">
-        <v>1.054953575382379</v>
+        <v>1.025873987315276</v>
       </c>
       <c r="N12">
-        <v>1.041801490980552</v>
+        <v>1.020391974686425</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033710224810093</v>
+        <v>0.9889165819626523</v>
       </c>
       <c r="D13">
-        <v>1.035505944453796</v>
+        <v>1.024110990443705</v>
       </c>
       <c r="E13">
-        <v>1.04232618041649</v>
+        <v>1.005893577999175</v>
       </c>
       <c r="F13">
-        <v>1.051448133956425</v>
+        <v>1.011199600870994</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039926148954989</v>
+        <v>1.046723805937738</v>
       </c>
       <c r="J13">
-        <v>1.04035479354979</v>
+        <v>1.01910316634038</v>
       </c>
       <c r="K13">
-        <v>1.03911023415964</v>
+        <v>1.038747860991709</v>
       </c>
       <c r="L13">
-        <v>1.045905077535746</v>
+        <v>1.020865073113048</v>
       </c>
       <c r="M13">
-        <v>1.054993637921679</v>
+        <v>1.026072010004231</v>
       </c>
       <c r="N13">
-        <v>1.041832216686993</v>
+        <v>1.020550409729351</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033871801054743</v>
+        <v>0.9897795169403479</v>
       </c>
       <c r="D14">
-        <v>1.035594670307442</v>
+        <v>1.024586870653049</v>
       </c>
       <c r="E14">
-        <v>1.042470887466457</v>
+        <v>1.006610850338617</v>
       </c>
       <c r="F14">
-        <v>1.05161107811468</v>
+        <v>1.012003343231182</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039964110245858</v>
+        <v>1.046993674599198</v>
       </c>
       <c r="J14">
-        <v>1.040455320512068</v>
+        <v>1.019620020572491</v>
       </c>
       <c r="K14">
-        <v>1.039166999625743</v>
+        <v>1.039075928111067</v>
       </c>
       <c r="L14">
-        <v>1.046017861322663</v>
+        <v>1.021425970107908</v>
       </c>
       <c r="M14">
-        <v>1.055124915108155</v>
+        <v>1.026719066297172</v>
       </c>
       <c r="N14">
-        <v>1.041932886409089</v>
+        <v>1.021067997953755</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033971364659968</v>
+        <v>0.9903093173179564</v>
       </c>
       <c r="D15">
-        <v>1.035649340427263</v>
+        <v>1.024879180739934</v>
       </c>
       <c r="E15">
-        <v>1.042560065925285</v>
+        <v>1.00705140984473</v>
       </c>
       <c r="F15">
-        <v>1.051711495874618</v>
+        <v>1.012496998748554</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039987469872356</v>
+        <v>1.047159143963235</v>
       </c>
       <c r="J15">
-        <v>1.040517254395831</v>
+        <v>1.01993730529672</v>
       </c>
       <c r="K15">
-        <v>1.039201960024521</v>
+        <v>1.039277274590909</v>
       </c>
       <c r="L15">
-        <v>1.046087354840119</v>
+        <v>1.021770365332651</v>
       </c>
       <c r="M15">
-        <v>1.055205806413672</v>
+        <v>1.027116386064096</v>
       </c>
       <c r="N15">
-        <v>1.04199490824607</v>
+        <v>1.021385733258686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034551037356582</v>
+        <v>0.9933648134745388</v>
       </c>
       <c r="D16">
-        <v>1.035967591613419</v>
+        <v>1.026567081460782</v>
       </c>
       <c r="E16">
-        <v>1.043079422391416</v>
+        <v>1.009595049219343</v>
       </c>
       <c r="F16">
-        <v>1.052296312915069</v>
+        <v>1.015346974399068</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040122980844601</v>
+        <v>1.04811010820645</v>
       </c>
       <c r="J16">
-        <v>1.04087767311122</v>
+        <v>1.021766544776722</v>
       </c>
       <c r="K16">
-        <v>1.039405219696589</v>
+        <v>1.040437353923338</v>
       </c>
       <c r="L16">
-        <v>1.046491892887705</v>
+        <v>1.023757021214176</v>
       </c>
       <c r="M16">
-        <v>1.055676736234791</v>
+        <v>1.029408674302821</v>
       </c>
       <c r="N16">
-        <v>1.042355838797376</v>
+        <v>1.023217570468566</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034914799204998</v>
+        <v>0.9952572363576885</v>
       </c>
       <c r="D17">
-        <v>1.036167262575405</v>
+        <v>1.027614206671806</v>
       </c>
       <c r="E17">
-        <v>1.043405463465765</v>
+        <v>1.011172877400295</v>
       </c>
       <c r="F17">
-        <v>1.052663453510451</v>
+        <v>1.017114638305878</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040207584493621</v>
+        <v>1.048696102917665</v>
       </c>
       <c r="J17">
-        <v>1.041103697759415</v>
+        <v>1.02289889998363</v>
       </c>
       <c r="K17">
-        <v>1.039532520083319</v>
+        <v>1.041154783659981</v>
       </c>
       <c r="L17">
-        <v>1.046745697133221</v>
+        <v>1.024987801128321</v>
       </c>
       <c r="M17">
-        <v>1.055972231725715</v>
+        <v>1.030829095930932</v>
       </c>
       <c r="N17">
-        <v>1.042582184426496</v>
+        <v>1.02435153374975</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035127028534027</v>
+        <v>0.9963525617756446</v>
       </c>
       <c r="D18">
-        <v>1.036283741275722</v>
+        <v>1.02822086091595</v>
       </c>
       <c r="E18">
-        <v>1.043595731861491</v>
+        <v>1.012086970303946</v>
       </c>
       <c r="F18">
-        <v>1.05287770818526</v>
+        <v>1.018138646580652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040256788422202</v>
+        <v>1.049034178446293</v>
       </c>
       <c r="J18">
-        <v>1.041235513447493</v>
+        <v>1.02355407666592</v>
       </c>
       <c r="K18">
-        <v>1.039606700158981</v>
+        <v>1.041569618892526</v>
       </c>
       <c r="L18">
-        <v>1.046893753884932</v>
+        <v>1.025700278270738</v>
       </c>
       <c r="M18">
-        <v>1.056144622606574</v>
+        <v>1.03165146008686</v>
       </c>
       <c r="N18">
-        <v>1.042714187307971</v>
+        <v>1.025007640858079</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035199402244307</v>
+        <v>0.9967246202400885</v>
       </c>
       <c r="D19">
-        <v>1.03632345982572</v>
+        <v>1.028427023767021</v>
       </c>
       <c r="E19">
-        <v>1.043660624395612</v>
+        <v>1.012397610976397</v>
       </c>
       <c r="F19">
-        <v>1.052950781730551</v>
+        <v>1.018486629918981</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040273541252815</v>
+        <v>1.04914882767324</v>
       </c>
       <c r="J19">
-        <v>1.041280455656482</v>
+        <v>1.02377658653596</v>
       </c>
       <c r="K19">
-        <v>1.039631981386956</v>
+        <v>1.041710457574302</v>
       </c>
       <c r="L19">
-        <v>1.046944240266769</v>
+        <v>1.025942308160898</v>
       </c>
       <c r="M19">
-        <v>1.056203409063391</v>
+        <v>1.031930836954696</v>
       </c>
       <c r="N19">
-        <v>1.042759193340052</v>
+        <v>1.025230466717657</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034875765491758</v>
+        <v>0.9950550808570302</v>
       </c>
       <c r="D20">
-        <v>1.036145838309676</v>
+        <v>1.027502287623603</v>
       </c>
       <c r="E20">
-        <v>1.043370472595441</v>
+        <v>1.011004239090553</v>
       </c>
       <c r="F20">
-        <v>1.052624051641068</v>
+        <v>1.016925716995777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040198522206962</v>
+        <v>1.0486336180099</v>
       </c>
       <c r="J20">
-        <v>1.041079449584315</v>
+        <v>1.022777960713284</v>
       </c>
       <c r="K20">
-        <v>1.039518869404779</v>
+        <v>1.041078187128639</v>
       </c>
       <c r="L20">
-        <v>1.046718464570416</v>
+        <v>1.024856313220993</v>
       </c>
       <c r="M20">
-        <v>1.055940524396632</v>
+        <v>1.030677336970226</v>
       </c>
       <c r="N20">
-        <v>1.042557901816207</v>
+        <v>1.024230422731768</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033824218553684</v>
+        <v>0.989525797622936</v>
       </c>
       <c r="D21">
-        <v>1.035568542086698</v>
+        <v>1.024446922819312</v>
       </c>
       <c r="E21">
-        <v>1.042428270746894</v>
+        <v>1.006399919060887</v>
       </c>
       <c r="F21">
-        <v>1.051563090434409</v>
+        <v>1.011766986541349</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039952937752326</v>
+        <v>1.046914373229954</v>
       </c>
       <c r="J21">
-        <v>1.040425718678718</v>
+        <v>1.019468063596208</v>
       </c>
       <c r="K21">
-        <v>1.03915028666668</v>
+        <v>1.038979484768837</v>
       </c>
       <c r="L21">
-        <v>1.045984648534905</v>
+        <v>1.021261049023372</v>
       </c>
       <c r="M21">
-        <v>1.055086255767812</v>
+        <v>1.02652880711217</v>
       </c>
       <c r="N21">
-        <v>1.04190324253774</v>
+        <v>1.020915825181136</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033163555224761</v>
+        <v>0.9859677210621397</v>
       </c>
       <c r="D22">
-        <v>1.035205711060178</v>
+        <v>1.022487007573379</v>
       </c>
       <c r="E22">
-        <v>1.041836728746337</v>
+        <v>1.003445348424645</v>
       </c>
       <c r="F22">
-        <v>1.050897002673444</v>
+        <v>1.008455992928384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039797237057166</v>
+        <v>1.045798408452691</v>
       </c>
       <c r="J22">
-        <v>1.040014512517445</v>
+        <v>1.017336403528056</v>
       </c>
       <c r="K22">
-        <v>1.038917902277681</v>
+        <v>1.037625778049564</v>
       </c>
       <c r="L22">
-        <v>1.045523430118303</v>
+        <v>1.018948859883731</v>
       </c>
       <c r="M22">
-        <v>1.054549452112247</v>
+        <v>1.023861775772131</v>
       </c>
       <c r="N22">
-        <v>1.041491452416552</v>
+        <v>1.018781137911182</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033513738965031</v>
+        <v>0.9878619161233085</v>
       </c>
       <c r="D23">
-        <v>1.035398040996693</v>
+        <v>1.023529772409504</v>
       </c>
       <c r="E23">
-        <v>1.042150234593892</v>
+        <v>1.005017455429273</v>
       </c>
       <c r="F23">
-        <v>1.051250014972547</v>
+        <v>1.010217816304404</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03987989917432</v>
+        <v>1.046393393753215</v>
       </c>
       <c r="J23">
-        <v>1.040232517388131</v>
+        <v>1.018471373439483</v>
       </c>
       <c r="K23">
-        <v>1.039041154104286</v>
+        <v>1.038346716612922</v>
       </c>
       <c r="L23">
-        <v>1.04576791512015</v>
+        <v>1.020179642913032</v>
       </c>
       <c r="M23">
-        <v>1.054833992195738</v>
+        <v>1.025281350623176</v>
       </c>
       <c r="N23">
-        <v>1.041709766879159</v>
+        <v>1.019917719610066</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034893402982276</v>
+        <v>0.9951464524183682</v>
       </c>
       <c r="D24">
-        <v>1.0361555189701</v>
+        <v>1.02755287172583</v>
       </c>
       <c r="E24">
-        <v>1.043386283172799</v>
+        <v>1.011080458692118</v>
       </c>
       <c r="F24">
-        <v>1.052641855316932</v>
+        <v>1.01701110411783</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040202617509068</v>
+        <v>1.048661863747207</v>
       </c>
       <c r="J24">
-        <v>1.041090406354828</v>
+        <v>1.022832624334851</v>
       </c>
       <c r="K24">
-        <v>1.039525037781688</v>
+        <v>1.041112809004824</v>
       </c>
       <c r="L24">
-        <v>1.046730769740819</v>
+        <v>1.024915743653173</v>
       </c>
       <c r="M24">
-        <v>1.055954851470855</v>
+        <v>1.030745929263549</v>
       </c>
       <c r="N24">
-        <v>1.042568874146591</v>
+        <v>1.024285163981949</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036496509551003</v>
+        <v>1.00326877989704</v>
       </c>
       <c r="D25">
-        <v>1.037035073161799</v>
+        <v>1.032060775807178</v>
       </c>
       <c r="E25">
-        <v>1.04482433718635</v>
+        <v>1.017873479972558</v>
       </c>
       <c r="F25">
-        <v>1.054261231322308</v>
+        <v>1.02461992926302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040571464803526</v>
+        <v>1.051148787398153</v>
       </c>
       <c r="J25">
-        <v>1.042085124613451</v>
+        <v>1.027686635109637</v>
       </c>
       <c r="K25">
-        <v>1.040083726013622</v>
+        <v>1.044180971694637</v>
       </c>
       <c r="L25">
-        <v>1.047848773029724</v>
+        <v>1.030200527546363</v>
       </c>
       <c r="M25">
-        <v>1.057256850495874</v>
+        <v>1.036847706947355</v>
       </c>
       <c r="N25">
-        <v>1.043565005019237</v>
+        <v>1.029146068008797</v>
       </c>
     </row>
   </sheetData>
